--- a/data/case1/14/V1_5.xlsx
+++ b/data/case1/14/V1_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998876472795</v>
+        <v>0.99999999608411128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99519938152981202</v>
+        <v>0.99444660876183688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97694648184936983</v>
+        <v>0.97726965831376089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9723086021924312</v>
+        <v>0.97044805119437738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96474703408460183</v>
+        <v>0.96063008928515858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94674965643896636</v>
+        <v>0.93695853011186436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94214175723471139</v>
+        <v>0.93035723854111296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9361505767658469</v>
+        <v>0.92122144880646983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92972424328827419</v>
+        <v>0.90946833073312039</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92421666660174329</v>
+        <v>0.89863459029151382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92346843395362543</v>
+        <v>0.89703782890703043</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92230039182294199</v>
+        <v>0.8942569801676703</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91863199955204422</v>
+        <v>0.88296641023073985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91782469676273148</v>
+        <v>0.8787982418505299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91839570927162417</v>
+        <v>0.87620633306453199</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91964458911345315</v>
+        <v>0.87369954698078744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.91593685146326498</v>
+        <v>0.86999130783444545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.91482796787314813</v>
+        <v>0.86888236587915402</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99414624201720669</v>
+        <v>0.99221800764778845</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98702938663226536</v>
+        <v>0.97462604514355733</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98563093040887328</v>
+        <v>0.97009410087151737</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98436642705690947</v>
+        <v>0.96312490062735379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96595975405656331</v>
+        <v>0.97023430027468538</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.94483294426221232</v>
+        <v>0.95721285936289902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.93043172371799443</v>
+        <v>0.95075576366302905</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94560392960592798</v>
+        <v>0.93562496965976516</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94425903925764132</v>
+        <v>0.93401789361867804</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93878640275143677</v>
+        <v>0.92719528699917575</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93544873759664005</v>
+        <v>0.92284734904659316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93494990593239324</v>
+        <v>0.92188848061741213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.94248647159764976</v>
+        <v>0.92809270848009739</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.94080726459179043</v>
+        <v>0.9311959805570269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9402872689617916</v>
+        <v>0.93284502281211656</v>
       </c>
     </row>
   </sheetData>
